--- a/stripped/S30065.mes.bin.xlsx
+++ b/stripped/S30065.mes.bin.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C92440-2F00-472D-A3B6-38BBC34E76B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E91C2A9-E95A-497A-A9A2-9676FA9296FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16275" yWindow="6510" windowWidth="33855" windowHeight="23535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33810" yWindow="0" windowWidth="33900" windowHeight="21090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S30065.mes.bin" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
     <t>33</t>
   </si>
   <si>
-    <t>^When I was with Ogata-san-san today...^</t>
+    <t>^When I was with Ogata-san today...^</t>
   </si>
   <si>
     <t>35</t>
@@ -206,7 +206,7 @@
     <t>97</t>
   </si>
   <si>
-    <t>^Ogata-san-san said I should tell him how I feel once the Music\nFestival is over... And I plan on doing so...^</t>
+    <t>^Ogata-san said I should tell him how I feel once the Music\nFestival is over... And I plan on doing so...^</t>
   </si>
   <si>
     <t>99</t>

--- a/stripped/S30065.mes.bin.xlsx
+++ b/stripped/S30065.mes.bin.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E91C2A9-E95A-497A-A9A2-9676FA9296FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA78624-5774-4521-A2DA-D18335B3529F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33810" yWindow="0" windowWidth="33900" windowHeight="21090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5460" yWindow="5460" windowWidth="50850" windowHeight="21795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S30065.mes.bin" sheetId="1" r:id="rId1"/>
